--- a/Facebook - original.xlsx
+++ b/Facebook - original.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Guy\לימודים\סמסטר ז\בינה\פרויקט\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B216CAE5-EA07-43A6-9E44-25AB76ECB969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5572547F-72CE-4378-A361-F1E6503AD274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -970,7 +970,7 @@
         <v>573576400</v>
       </c>
       <c r="J2">
-        <f>IF(SIGN(G3-G2)=1,1,0)</f>
+        <f>IF(SIGN(G3-D3)=1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1003,7 +1003,7 @@
         <v>168192700</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J66" si="0">IF(SIGN(G4-G3)=1,1,0)</f>
+        <f t="shared" ref="J3:J66" si="0">IF(SIGN(G4-D4)=1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2159,7 +2159,7 @@
       </c>
       <c r="J38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="J45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="J49">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="J57">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
@@ -3115,7 +3115,7 @@
         <v>70640600</v>
       </c>
       <c r="J67">
-        <f t="shared" ref="J67:J130" si="1">IF(SIGN(G68-G67)=1,1,0)</f>
+        <f t="shared" ref="J67:J130" si="1">IF(SIGN(G68-D68)=1,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       </c>
       <c r="J78">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -3809,7 +3809,7 @@
       </c>
       <c r="J88">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="J94">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -4106,7 +4106,7 @@
       </c>
       <c r="J97">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
@@ -4271,7 +4271,7 @@
       </c>
       <c r="J102">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -4469,7 +4469,7 @@
       </c>
       <c r="J108">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="J111">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
@@ -4667,7 +4667,7 @@
       </c>
       <c r="J114">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -4964,7 +4964,7 @@
       </c>
       <c r="J123">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
@@ -5227,7 +5227,7 @@
         <v>29520900</v>
       </c>
       <c r="J131">
-        <f t="shared" ref="J131:J194" si="2">IF(SIGN(G132-G131)=1,1,0)</f>
+        <f t="shared" ref="J131:J194" si="2">IF(SIGN(G132-D132)=1,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -5459,7 +5459,7 @@
       </c>
       <c r="J138">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -5591,7 +5591,7 @@
       </c>
       <c r="J142">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -5987,7 +5987,7 @@
       </c>
       <c r="J154">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -6515,7 +6515,7 @@
       </c>
       <c r="J170">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -6548,7 +6548,7 @@
       </c>
       <c r="J171">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="J176">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
@@ -7339,7 +7339,7 @@
         <v>44319700</v>
       </c>
       <c r="J195">
-        <f t="shared" ref="J195:J258" si="3">IF(SIGN(G196-G195)=1,1,0)</f>
+        <f t="shared" ref="J195:J258" si="3">IF(SIGN(G196-D196)=1,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -7736,7 +7736,7 @@
       </c>
       <c r="J207">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -7835,7 +7835,7 @@
       </c>
       <c r="J210">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -8231,7 +8231,7 @@
       </c>
       <c r="J222">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -8561,7 +8561,7 @@
       </c>
       <c r="J232">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -8693,7 +8693,7 @@
       </c>
       <c r="J236">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -9155,7 +9155,7 @@
       </c>
       <c r="J250">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
@@ -9287,7 +9287,7 @@
       </c>
       <c r="J254">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
@@ -9451,7 +9451,7 @@
         <v>60733200</v>
       </c>
       <c r="J259">
-        <f t="shared" ref="J259:J322" si="4">IF(SIGN(G260-G259)=1,1,0)</f>
+        <f t="shared" ref="J259:J322" si="4">IF(SIGN(G260-D260)=1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -9584,7 +9584,7 @@
       </c>
       <c r="J263">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
@@ -9749,7 +9749,7 @@
       </c>
       <c r="J268">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
@@ -9782,7 +9782,7 @@
       </c>
       <c r="J269">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
@@ -9947,7 +9947,7 @@
       </c>
       <c r="J274">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
@@ -10376,7 +10376,7 @@
       </c>
       <c r="J287">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
@@ -10475,7 +10475,7 @@
       </c>
       <c r="J290">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
@@ -10574,7 +10574,7 @@
       </c>
       <c r="J293">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
@@ -10739,7 +10739,7 @@
       </c>
       <c r="J298">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
@@ -11102,7 +11102,7 @@
       </c>
       <c r="J309">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
@@ -11201,7 +11201,7 @@
       </c>
       <c r="J312">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
@@ -11563,8 +11563,8 @@
         <v>58303400</v>
       </c>
       <c r="J323">
-        <f t="shared" ref="J323:J386" si="5">IF(SIGN(G324-G323)=1,1,0)</f>
-        <v>1</v>
+        <f t="shared" ref="J323:J386" si="5">IF(SIGN(G324-D324)=1,1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="J328">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
@@ -12092,7 +12092,7 @@
       </c>
       <c r="J339">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
@@ -12224,7 +12224,7 @@
       </c>
       <c r="J343">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
@@ -12290,7 +12290,7 @@
       </c>
       <c r="J345">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
@@ -12521,7 +12521,7 @@
       </c>
       <c r="J352">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
@@ -12785,7 +12785,7 @@
       </c>
       <c r="J360">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
@@ -13346,7 +13346,7 @@
       </c>
       <c r="J377">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.25">
@@ -13445,7 +13445,7 @@
       </c>
       <c r="J380">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.25">
@@ -13478,7 +13478,7 @@
       </c>
       <c r="J381">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
@@ -13675,7 +13675,7 @@
         <v>22953900</v>
       </c>
       <c r="J387">
-        <f t="shared" ref="J387:J450" si="6">IF(SIGN(G388-G387)=1,1,0)</f>
+        <f t="shared" ref="J387:J450" si="6">IF(SIGN(G388-D388)=1,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -13775,7 +13775,7 @@
       </c>
       <c r="J390">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.25">
@@ -14105,7 +14105,7 @@
       </c>
       <c r="J400">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.25">
@@ -14204,7 +14204,7 @@
       </c>
       <c r="J403">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.25">
@@ -14369,7 +14369,7 @@
       </c>
       <c r="J408">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:10" x14ac:dyDescent="0.25">
@@ -14831,7 +14831,7 @@
       </c>
       <c r="J422">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.25">
@@ -14996,7 +14996,7 @@
       </c>
       <c r="J427">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.25">
@@ -15161,7 +15161,7 @@
       </c>
       <c r="J432">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.25">
@@ -15689,7 +15689,7 @@
       </c>
       <c r="J448">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:10" x14ac:dyDescent="0.25">
@@ -15787,7 +15787,7 @@
         <v>74567700</v>
       </c>
       <c r="J451">
-        <f t="shared" ref="J451:J514" si="7">IF(SIGN(G452-G451)=1,1,0)</f>
+        <f t="shared" ref="J451:J514" si="7">IF(SIGN(G452-D452)=1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -16151,7 +16151,7 @@
       </c>
       <c r="J462">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:10" x14ac:dyDescent="0.25">
@@ -16217,7 +16217,7 @@
       </c>
       <c r="J464">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.25">
@@ -16349,7 +16349,7 @@
       </c>
       <c r="J468">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.25">
@@ -16415,7 +16415,7 @@
       </c>
       <c r="J470">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.25">
@@ -16646,7 +16646,7 @@
       </c>
       <c r="J477">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.25">
@@ -16679,7 +16679,7 @@
       </c>
       <c r="J478">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.25">
@@ -16712,7 +16712,7 @@
       </c>
       <c r="J479">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.25">
@@ -16745,7 +16745,7 @@
       </c>
       <c r="J480">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.25">
@@ -17339,7 +17339,7 @@
       </c>
       <c r="J498">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.25">
@@ -17438,7 +17438,7 @@
       </c>
       <c r="J501">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.25">
@@ -17570,7 +17570,7 @@
       </c>
       <c r="J505">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.25">
@@ -17702,7 +17702,7 @@
       </c>
       <c r="J509">
         <f t="shared" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.25">
@@ -17801,7 +17801,7 @@
       </c>
       <c r="J512">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:10" x14ac:dyDescent="0.25">
@@ -17899,7 +17899,7 @@
         <v>47352000</v>
       </c>
       <c r="J515">
-        <f t="shared" ref="J515:J578" si="8">IF(SIGN(G516-G515)=1,1,0)</f>
+        <f t="shared" ref="J515:J578" si="8">IF(SIGN(G516-D516)=1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -18065,7 +18065,7 @@
       </c>
       <c r="J520">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:10" x14ac:dyDescent="0.25">
@@ -18098,7 +18098,7 @@
       </c>
       <c r="J521">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:10" x14ac:dyDescent="0.25">
@@ -18659,7 +18659,7 @@
       </c>
       <c r="J538">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:10" x14ac:dyDescent="0.25">
@@ -18989,7 +18989,7 @@
       </c>
       <c r="J548">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.25">
@@ -19187,7 +19187,7 @@
       </c>
       <c r="J554">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:10" x14ac:dyDescent="0.25">
@@ -19286,7 +19286,7 @@
       </c>
       <c r="J557">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:10" x14ac:dyDescent="0.25">
@@ -19385,7 +19385,7 @@
       </c>
       <c r="J560">
         <f t="shared" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:10" x14ac:dyDescent="0.25">
@@ -19682,7 +19682,7 @@
       </c>
       <c r="J569">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:10" x14ac:dyDescent="0.25">
@@ -20011,7 +20011,7 @@
         <v>29476000</v>
       </c>
       <c r="J579">
-        <f t="shared" ref="J579:J642" si="9">IF(SIGN(G580-G579)=1,1,0)</f>
+        <f t="shared" ref="J579:J642" si="9">IF(SIGN(G580-D580)=1,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -20540,7 +20540,7 @@
       </c>
       <c r="J595">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:10" x14ac:dyDescent="0.25">
@@ -20639,7 +20639,7 @@
       </c>
       <c r="J598">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:10" x14ac:dyDescent="0.25">
@@ -20837,7 +20837,7 @@
       </c>
       <c r="J604">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:10" x14ac:dyDescent="0.25">
@@ -20870,7 +20870,7 @@
       </c>
       <c r="J605">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:10" x14ac:dyDescent="0.25">
@@ -20903,7 +20903,7 @@
       </c>
       <c r="J606">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:10" x14ac:dyDescent="0.25">
@@ -20936,7 +20936,7 @@
       </c>
       <c r="J607">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:10" x14ac:dyDescent="0.25">
@@ -21233,7 +21233,7 @@
       </c>
       <c r="J616">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:10" x14ac:dyDescent="0.25">
@@ -21695,7 +21695,7 @@
       </c>
       <c r="J630">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:10" x14ac:dyDescent="0.25">
@@ -21794,7 +21794,7 @@
       </c>
       <c r="J633">
         <f t="shared" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:10" x14ac:dyDescent="0.25">
@@ -22123,7 +22123,7 @@
         <v>24306400</v>
       </c>
       <c r="J643">
-        <f t="shared" ref="J643:J706" si="10">IF(SIGN(G644-G643)=1,1,0)</f>
+        <f t="shared" ref="J643:J706" si="10">IF(SIGN(G644-D644)=1,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -22520,7 +22520,7 @@
       </c>
       <c r="J655">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:10" x14ac:dyDescent="0.25">
@@ -22553,7 +22553,7 @@
       </c>
       <c r="J656">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:10" x14ac:dyDescent="0.25">
@@ -22685,7 +22685,7 @@
       </c>
       <c r="J660">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:10" x14ac:dyDescent="0.25">
@@ -23246,7 +23246,7 @@
       </c>
       <c r="J677">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:10" x14ac:dyDescent="0.25">
@@ -23510,7 +23510,7 @@
       </c>
       <c r="J685">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:10" x14ac:dyDescent="0.25">
@@ -23675,7 +23675,7 @@
       </c>
       <c r="J690">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:10" x14ac:dyDescent="0.25">
@@ -24071,7 +24071,7 @@
       </c>
       <c r="J702">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:10" x14ac:dyDescent="0.25">
@@ -24203,7 +24203,7 @@
       </c>
       <c r="J706">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:10" x14ac:dyDescent="0.25">
@@ -24235,7 +24235,7 @@
         <v>20215700</v>
       </c>
       <c r="J707">
-        <f t="shared" ref="J707:J770" si="11">IF(SIGN(G708-G707)=1,1,0)</f>
+        <f t="shared" ref="J707:J770" si="11">IF(SIGN(G708-D708)=1,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -24599,7 +24599,7 @@
       </c>
       <c r="J718">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:10" x14ac:dyDescent="0.25">
@@ -25127,7 +25127,7 @@
       </c>
       <c r="J734">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:10" x14ac:dyDescent="0.25">
@@ -25325,7 +25325,7 @@
       </c>
       <c r="J740">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:10" x14ac:dyDescent="0.25">
@@ -25391,7 +25391,7 @@
       </c>
       <c r="J742">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:10" x14ac:dyDescent="0.25">
@@ -25556,7 +25556,7 @@
       </c>
       <c r="J747">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:10" x14ac:dyDescent="0.25">
@@ -25820,7 +25820,7 @@
       </c>
       <c r="J755">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:10" x14ac:dyDescent="0.25">
@@ -25853,7 +25853,7 @@
       </c>
       <c r="J756">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:10" x14ac:dyDescent="0.25">
@@ -26249,7 +26249,7 @@
       </c>
       <c r="J768">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:10" x14ac:dyDescent="0.25">
@@ -26347,8 +26347,8 @@
         <v>18656800</v>
       </c>
       <c r="J771">
-        <f t="shared" ref="J771:J834" si="12">IF(SIGN(G772-G771)=1,1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="J771:J834" si="12">IF(SIGN(G772-D772)=1,1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="1:10" x14ac:dyDescent="0.25">
@@ -26381,7 +26381,7 @@
       </c>
       <c r="J772">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="1:10" x14ac:dyDescent="0.25">
@@ -26678,7 +26678,7 @@
       </c>
       <c r="J781">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:10" x14ac:dyDescent="0.25">
@@ -26810,7 +26810,7 @@
       </c>
       <c r="J785">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:10" x14ac:dyDescent="0.25">
@@ -26942,7 +26942,7 @@
       </c>
       <c r="J789">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:10" x14ac:dyDescent="0.25">
@@ -27074,7 +27074,7 @@
       </c>
       <c r="J793">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:10" x14ac:dyDescent="0.25">
@@ -27206,7 +27206,7 @@
       </c>
       <c r="J797">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:10" x14ac:dyDescent="0.25">
@@ -27239,7 +27239,7 @@
       </c>
       <c r="J798">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:10" x14ac:dyDescent="0.25">
@@ -27305,7 +27305,7 @@
       </c>
       <c r="J800">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:10" x14ac:dyDescent="0.25">
@@ -27437,7 +27437,7 @@
       </c>
       <c r="J804">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:10" x14ac:dyDescent="0.25">
@@ -27536,7 +27536,7 @@
       </c>
       <c r="J807">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:10" x14ac:dyDescent="0.25">
@@ -27998,7 +27998,7 @@
       </c>
       <c r="J821">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:10" x14ac:dyDescent="0.25">
@@ -28031,7 +28031,7 @@
       </c>
       <c r="J822">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:10" x14ac:dyDescent="0.25">
@@ -28196,7 +28196,7 @@
       </c>
       <c r="J827">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:10" x14ac:dyDescent="0.25">
@@ -28328,7 +28328,7 @@
       </c>
       <c r="J831">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:10" x14ac:dyDescent="0.25">
@@ -28361,7 +28361,7 @@
       </c>
       <c r="J832">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:10" x14ac:dyDescent="0.25">
@@ -28459,8 +28459,8 @@
         <v>21185000</v>
       </c>
       <c r="J835">
-        <f t="shared" ref="J835:J898" si="13">IF(SIGN(G836-G835)=1,1,0)</f>
-        <v>1</v>
+        <f t="shared" ref="J835:J898" si="13">IF(SIGN(G836-D836)=1,1,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:10" x14ac:dyDescent="0.25">
@@ -29153,7 +29153,7 @@
       </c>
       <c r="J856">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:10" x14ac:dyDescent="0.25">
@@ -29351,7 +29351,7 @@
       </c>
       <c r="J862">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:10" x14ac:dyDescent="0.25">
@@ -29483,7 +29483,7 @@
       </c>
       <c r="J866">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:10" x14ac:dyDescent="0.25">
@@ -29714,7 +29714,7 @@
       </c>
       <c r="J873">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:10" x14ac:dyDescent="0.25">
@@ -30209,7 +30209,7 @@
       </c>
       <c r="J888">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:10" x14ac:dyDescent="0.25">
@@ -30571,7 +30571,7 @@
         <v>26427700</v>
       </c>
       <c r="J899">
-        <f t="shared" ref="J899:J962" si="14">IF(SIGN(G900-G899)=1,1,0)</f>
+        <f t="shared" ref="J899:J962" si="14">IF(SIGN(G900-D900)=1,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -30737,7 +30737,7 @@
       </c>
       <c r="J904">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:10" x14ac:dyDescent="0.25">
@@ -31001,7 +31001,7 @@
       </c>
       <c r="J912">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:10" x14ac:dyDescent="0.25">
@@ -31034,7 +31034,7 @@
       </c>
       <c r="J913">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:10" x14ac:dyDescent="0.25">
@@ -31166,7 +31166,7 @@
       </c>
       <c r="J917">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:10" x14ac:dyDescent="0.25">
@@ -31298,7 +31298,7 @@
       </c>
       <c r="J921">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:10" x14ac:dyDescent="0.25">
@@ -31331,7 +31331,7 @@
       </c>
       <c r="J922">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:10" x14ac:dyDescent="0.25">
@@ -31364,7 +31364,7 @@
       </c>
       <c r="J923">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:10" x14ac:dyDescent="0.25">
@@ -31496,7 +31496,7 @@
       </c>
       <c r="J927">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:10" x14ac:dyDescent="0.25">
@@ -31826,7 +31826,7 @@
       </c>
       <c r="J937">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938" spans="1:10" x14ac:dyDescent="0.25">
@@ -31859,7 +31859,7 @@
       </c>
       <c r="J938">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:10" x14ac:dyDescent="0.25">
@@ -31925,7 +31925,7 @@
       </c>
       <c r="J940">
         <f t="shared" si="14"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:10" x14ac:dyDescent="0.25">
@@ -32683,7 +32683,7 @@
         <v>24744800</v>
       </c>
       <c r="J963">
-        <f t="shared" ref="J963:J1026" si="15">IF(SIGN(G964-G963)=1,1,0)</f>
+        <f t="shared" ref="J963:J1026" si="15">IF(SIGN(G964-D964)=1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -32717,7 +32717,7 @@
       </c>
       <c r="J964">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:10" x14ac:dyDescent="0.25">
@@ -33080,7 +33080,7 @@
       </c>
       <c r="J975">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="976" spans="1:10" x14ac:dyDescent="0.25">
@@ -33443,7 +33443,7 @@
       </c>
       <c r="J986">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:10" x14ac:dyDescent="0.25">
@@ -33542,7 +33542,7 @@
       </c>
       <c r="J989">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="990" spans="1:10" x14ac:dyDescent="0.25">
@@ -33641,7 +33641,7 @@
       </c>
       <c r="J992">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:10" x14ac:dyDescent="0.25">
@@ -34268,7 +34268,7 @@
       </c>
       <c r="J1011">
         <f t="shared" si="15"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1012" spans="1:10" x14ac:dyDescent="0.25">
@@ -34400,7 +34400,7 @@
       </c>
       <c r="J1015">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1016" spans="1:10" x14ac:dyDescent="0.25">
@@ -34763,7 +34763,7 @@
       </c>
       <c r="J1026">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1027" spans="1:10" x14ac:dyDescent="0.25">
@@ -34795,7 +34795,7 @@
         <v>19236300</v>
       </c>
       <c r="J1027">
-        <f t="shared" ref="J1027:J1090" si="16">IF(SIGN(G1028-G1027)=1,1,0)</f>
+        <f t="shared" ref="J1027:J1090" si="16">IF(SIGN(G1028-D1028)=1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -34829,7 +34829,7 @@
       </c>
       <c r="J1028">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1029" spans="1:10" x14ac:dyDescent="0.25">
@@ -34961,7 +34961,7 @@
       </c>
       <c r="J1032">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1033" spans="1:10" x14ac:dyDescent="0.25">
@@ -35093,7 +35093,7 @@
       </c>
       <c r="J1036">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1037" spans="1:10" x14ac:dyDescent="0.25">
@@ -35324,7 +35324,7 @@
       </c>
       <c r="J1043">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:10" x14ac:dyDescent="0.25">
@@ -35390,7 +35390,7 @@
       </c>
       <c r="J1045">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:10" x14ac:dyDescent="0.25">
@@ -35720,7 +35720,7 @@
       </c>
       <c r="J1055">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056" spans="1:10" x14ac:dyDescent="0.25">
@@ -36050,7 +36050,7 @@
       </c>
       <c r="J1065">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:10" x14ac:dyDescent="0.25">
@@ -36083,7 +36083,7 @@
       </c>
       <c r="J1066">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1067" spans="1:10" x14ac:dyDescent="0.25">
@@ -36314,7 +36314,7 @@
       </c>
       <c r="J1073">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074" spans="1:10" x14ac:dyDescent="0.25">
@@ -36545,7 +36545,7 @@
       </c>
       <c r="J1080">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1081" spans="1:10" x14ac:dyDescent="0.25">
@@ -36578,7 +36578,7 @@
       </c>
       <c r="J1081">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082" spans="1:10" x14ac:dyDescent="0.25">
@@ -36907,7 +36907,7 @@
         <v>24119200</v>
       </c>
       <c r="J1091">
-        <f t="shared" ref="J1091:J1154" si="17">IF(SIGN(G1092-G1091)=1,1,0)</f>
+        <f t="shared" ref="J1091:J1154" si="17">IF(SIGN(G1092-D1092)=1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -37007,7 +37007,7 @@
       </c>
       <c r="J1094">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1095" spans="1:10" x14ac:dyDescent="0.25">
@@ -37040,7 +37040,7 @@
       </c>
       <c r="J1095">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096" spans="1:10" x14ac:dyDescent="0.25">
@@ -37370,7 +37370,7 @@
       </c>
       <c r="J1105">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1106" spans="1:10" x14ac:dyDescent="0.25">
@@ -37535,7 +37535,7 @@
       </c>
       <c r="J1110">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1111" spans="1:10" x14ac:dyDescent="0.25">
@@ -37601,7 +37601,7 @@
       </c>
       <c r="J1112">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1113" spans="1:10" x14ac:dyDescent="0.25">
@@ -38063,7 +38063,7 @@
       </c>
       <c r="J1126">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1127" spans="1:10" x14ac:dyDescent="0.25">
@@ -38129,7 +38129,7 @@
       </c>
       <c r="J1128">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1129" spans="1:10" x14ac:dyDescent="0.25">
@@ -38294,7 +38294,7 @@
       </c>
       <c r="J1133">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1134" spans="1:10" x14ac:dyDescent="0.25">
@@ -38921,7 +38921,7 @@
       </c>
       <c r="J1152">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1153" spans="1:10" x14ac:dyDescent="0.25">
@@ -39019,7 +39019,7 @@
         <v>25324300</v>
       </c>
       <c r="J1155">
-        <f t="shared" ref="J1155:J1218" si="18">IF(SIGN(G1156-G1155)=1,1,0)</f>
+        <f t="shared" ref="J1155:J1218" si="18">IF(SIGN(G1156-D1156)=1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -39086,7 +39086,7 @@
       </c>
       <c r="J1157">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1158" spans="1:10" x14ac:dyDescent="0.25">
@@ -39152,7 +39152,7 @@
       </c>
       <c r="J1159">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1160" spans="1:10" x14ac:dyDescent="0.25">
@@ -39647,7 +39647,7 @@
       </c>
       <c r="J1174">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175" spans="1:10" x14ac:dyDescent="0.25">
@@ -39779,7 +39779,7 @@
       </c>
       <c r="J1178">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179" spans="1:10" x14ac:dyDescent="0.25">
@@ -39944,7 +39944,7 @@
       </c>
       <c r="J1183">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1184" spans="1:10" x14ac:dyDescent="0.25">
@@ -40043,7 +40043,7 @@
       </c>
       <c r="J1186">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1187" spans="1:10" x14ac:dyDescent="0.25">
@@ -40373,7 +40373,7 @@
       </c>
       <c r="J1196">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1197" spans="1:10" x14ac:dyDescent="0.25">
@@ -40736,7 +40736,7 @@
       </c>
       <c r="J1207">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1208" spans="1:10" x14ac:dyDescent="0.25">
@@ -40835,7 +40835,7 @@
       </c>
       <c r="J1210">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1211" spans="1:10" x14ac:dyDescent="0.25">
@@ -40967,7 +40967,7 @@
       </c>
       <c r="J1214">
         <f t="shared" si="18"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215" spans="1:10" x14ac:dyDescent="0.25">
@@ -41131,8 +41131,8 @@
         <v>17055400</v>
       </c>
       <c r="J1219">
-        <f t="shared" ref="J1219:J1282" si="19">IF(SIGN(G1220-G1219)=1,1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="J1219:J1282" si="19">IF(SIGN(G1220-D1220)=1,1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="1220" spans="1:10" x14ac:dyDescent="0.25">
@@ -41198,7 +41198,7 @@
       </c>
       <c r="J1221">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1222" spans="1:10" x14ac:dyDescent="0.25">
@@ -41297,7 +41297,7 @@
       </c>
       <c r="J1224">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1225" spans="1:10" x14ac:dyDescent="0.25">
@@ -41429,7 +41429,7 @@
       </c>
       <c r="J1228">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1229" spans="1:10" x14ac:dyDescent="0.25">
@@ -41891,7 +41891,7 @@
       </c>
       <c r="J1242">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243" spans="1:10" x14ac:dyDescent="0.25">
@@ -42023,7 +42023,7 @@
       </c>
       <c r="J1246">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1247" spans="1:10" x14ac:dyDescent="0.25">
@@ -42089,7 +42089,7 @@
       </c>
       <c r="J1248">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1249" spans="1:10" x14ac:dyDescent="0.25">
@@ -42221,7 +42221,7 @@
       </c>
       <c r="J1252">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1253" spans="1:10" x14ac:dyDescent="0.25">
@@ -42287,7 +42287,7 @@
       </c>
       <c r="J1254">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1255" spans="1:10" x14ac:dyDescent="0.25">
@@ -42320,7 +42320,7 @@
       </c>
       <c r="J1255">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1256" spans="1:10" x14ac:dyDescent="0.25">
@@ -42452,7 +42452,7 @@
       </c>
       <c r="J1259">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1260" spans="1:10" x14ac:dyDescent="0.25">
@@ -42617,7 +42617,7 @@
       </c>
       <c r="J1264">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1265" spans="1:10" x14ac:dyDescent="0.25">
@@ -42716,7 +42716,7 @@
       </c>
       <c r="J1267">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1268" spans="1:10" x14ac:dyDescent="0.25">
@@ -42782,7 +42782,7 @@
       </c>
       <c r="J1269">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1270" spans="1:10" x14ac:dyDescent="0.25">
@@ -42848,7 +42848,7 @@
       </c>
       <c r="J1271">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1272" spans="1:10" x14ac:dyDescent="0.25">
@@ -42947,7 +42947,7 @@
       </c>
       <c r="J1274">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1275" spans="1:10" x14ac:dyDescent="0.25">
@@ -43046,7 +43046,7 @@
       </c>
       <c r="J1277">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1278" spans="1:10" x14ac:dyDescent="0.25">
@@ -43211,7 +43211,7 @@
       </c>
       <c r="J1282">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1283" spans="1:10" x14ac:dyDescent="0.25">
@@ -43243,7 +43243,7 @@
         <v>13005500</v>
       </c>
       <c r="J1283">
-        <f t="shared" ref="J1283:J1346" si="20">IF(SIGN(G1284-G1283)=1,1,0)</f>
+        <f t="shared" ref="J1283:J1346" si="20">IF(SIGN(G1284-D1284)=1,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -43706,7 +43706,7 @@
       </c>
       <c r="J1297">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1298" spans="1:10" x14ac:dyDescent="0.25">
@@ -43838,7 +43838,7 @@
       </c>
       <c r="J1301">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1302" spans="1:10" x14ac:dyDescent="0.25">
@@ -43871,7 +43871,7 @@
       </c>
       <c r="J1302">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1303" spans="1:10" x14ac:dyDescent="0.25">
@@ -43937,7 +43937,7 @@
       </c>
       <c r="J1304">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1305" spans="1:10" x14ac:dyDescent="0.25">
@@ -43970,7 +43970,7 @@
       </c>
       <c r="J1305">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1306" spans="1:10" x14ac:dyDescent="0.25">
@@ -44003,7 +44003,7 @@
       </c>
       <c r="J1306">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1307" spans="1:10" x14ac:dyDescent="0.25">
@@ -44300,7 +44300,7 @@
       </c>
       <c r="J1315">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1316" spans="1:10" x14ac:dyDescent="0.25">
@@ -44432,7 +44432,7 @@
       </c>
       <c r="J1319">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1320" spans="1:10" x14ac:dyDescent="0.25">
@@ -44861,7 +44861,7 @@
       </c>
       <c r="J1332">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1333" spans="1:10" x14ac:dyDescent="0.25">
@@ -45323,7 +45323,7 @@
       </c>
       <c r="J1346">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1347" spans="1:10" x14ac:dyDescent="0.25">
@@ -45355,7 +45355,7 @@
         <v>12097100</v>
       </c>
       <c r="J1347">
-        <f t="shared" ref="J1347:J1410" si="21">IF(SIGN(G1348-G1347)=1,1,0)</f>
+        <f t="shared" ref="J1347:J1410" si="21">IF(SIGN(G1348-D1348)=1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -45389,7 +45389,7 @@
       </c>
       <c r="J1348">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1349" spans="1:10" x14ac:dyDescent="0.25">
@@ -45686,7 +45686,7 @@
       </c>
       <c r="J1357">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1358" spans="1:10" x14ac:dyDescent="0.25">
@@ -45983,7 +45983,7 @@
       </c>
       <c r="J1366">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1367" spans="1:10" x14ac:dyDescent="0.25">
@@ -46049,7 +46049,7 @@
       </c>
       <c r="J1368">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1369" spans="1:10" x14ac:dyDescent="0.25">
@@ -46115,7 +46115,7 @@
       </c>
       <c r="J1370">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1371" spans="1:10" x14ac:dyDescent="0.25">
@@ -46214,7 +46214,7 @@
       </c>
       <c r="J1373">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1374" spans="1:10" x14ac:dyDescent="0.25">
@@ -46379,7 +46379,7 @@
       </c>
       <c r="J1378">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1379" spans="1:10" x14ac:dyDescent="0.25">
@@ -46445,7 +46445,7 @@
       </c>
       <c r="J1380">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1381" spans="1:10" x14ac:dyDescent="0.25">
@@ -46478,7 +46478,7 @@
       </c>
       <c r="J1381">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1382" spans="1:10" x14ac:dyDescent="0.25">
@@ -46577,7 +46577,7 @@
       </c>
       <c r="J1384">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1385" spans="1:10" x14ac:dyDescent="0.25">
@@ -47138,7 +47138,7 @@
       </c>
       <c r="J1401">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1402" spans="1:10" x14ac:dyDescent="0.25">
@@ -47303,7 +47303,7 @@
       </c>
       <c r="J1406">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1407" spans="1:10" x14ac:dyDescent="0.25">
@@ -47435,7 +47435,7 @@
       </c>
       <c r="J1410">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1411" spans="1:10" x14ac:dyDescent="0.25">
@@ -47467,7 +47467,7 @@
         <v>8509500</v>
       </c>
       <c r="J1411">
-        <f t="shared" ref="J1411:J1474" si="22">IF(SIGN(G1412-G1411)=1,1,0)</f>
+        <f t="shared" ref="J1411:J1474" si="22">IF(SIGN(G1412-D1412)=1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -47534,7 +47534,7 @@
       </c>
       <c r="J1413">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1414" spans="1:10" x14ac:dyDescent="0.25">
@@ -47798,7 +47798,7 @@
       </c>
       <c r="J1421">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1422" spans="1:10" x14ac:dyDescent="0.25">
@@ -47864,7 +47864,7 @@
       </c>
       <c r="J1423">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1424" spans="1:10" x14ac:dyDescent="0.25">
@@ -48128,7 +48128,7 @@
       </c>
       <c r="J1431">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1432" spans="1:10" x14ac:dyDescent="0.25">
@@ -48227,7 +48227,7 @@
       </c>
       <c r="J1434">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1435" spans="1:10" x14ac:dyDescent="0.25">
@@ -48524,7 +48524,7 @@
       </c>
       <c r="J1443">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1444" spans="1:10" x14ac:dyDescent="0.25">
@@ -48623,7 +48623,7 @@
       </c>
       <c r="J1446">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1447" spans="1:10" x14ac:dyDescent="0.25">
@@ -48689,7 +48689,7 @@
       </c>
       <c r="J1448">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1449" spans="1:10" x14ac:dyDescent="0.25">
@@ -49250,7 +49250,7 @@
       </c>
       <c r="J1465">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1466" spans="1:10" x14ac:dyDescent="0.25">
@@ -49349,7 +49349,7 @@
       </c>
       <c r="J1468">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1469" spans="1:10" x14ac:dyDescent="0.25">
@@ -49481,7 +49481,7 @@
       </c>
       <c r="J1472">
         <f t="shared" si="22"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1473" spans="1:10" x14ac:dyDescent="0.25">
@@ -49579,7 +49579,7 @@
         <v>60029200</v>
       </c>
       <c r="J1475">
-        <f t="shared" ref="J1475:J1538" si="23">IF(SIGN(G1476-G1475)=1,1,0)</f>
+        <f t="shared" ref="J1475:J1538" si="23">IF(SIGN(G1476-D1476)=1,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -49646,7 +49646,7 @@
       </c>
       <c r="J1477">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1478" spans="1:10" x14ac:dyDescent="0.25">
@@ -49679,7 +49679,7 @@
       </c>
       <c r="J1478">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1479" spans="1:10" x14ac:dyDescent="0.25">
@@ -49712,7 +49712,7 @@
       </c>
       <c r="J1479">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1480" spans="1:10" x14ac:dyDescent="0.25">
@@ -49910,7 +49910,7 @@
       </c>
       <c r="J1485">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1486" spans="1:10" x14ac:dyDescent="0.25">
@@ -49943,7 +49943,7 @@
       </c>
       <c r="J1486">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1487" spans="1:10" x14ac:dyDescent="0.25">
@@ -50867,7 +50867,7 @@
       </c>
       <c r="J1514">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1515" spans="1:10" x14ac:dyDescent="0.25">
@@ -51065,7 +51065,7 @@
       </c>
       <c r="J1520">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1521" spans="1:10" x14ac:dyDescent="0.25">
@@ -51131,7 +51131,7 @@
       </c>
       <c r="J1522">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1523" spans="1:10" x14ac:dyDescent="0.25">
@@ -51296,7 +51296,7 @@
       </c>
       <c r="J1527">
         <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1528" spans="1:10" x14ac:dyDescent="0.25">
@@ -51362,7 +51362,7 @@
       </c>
       <c r="J1529">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1530" spans="1:10" x14ac:dyDescent="0.25">
@@ -51428,7 +51428,7 @@
       </c>
       <c r="J1531">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1532" spans="1:10" x14ac:dyDescent="0.25">
@@ -51691,7 +51691,7 @@
         <v>18172400</v>
       </c>
       <c r="J1539">
-        <f t="shared" ref="J1539:J1602" si="24">IF(SIGN(G1540-G1539)=1,1,0)</f>
+        <f t="shared" ref="J1539:J1602" si="24">IF(SIGN(G1540-D1540)=1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -51857,7 +51857,7 @@
       </c>
       <c r="J1544">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1545" spans="1:10" x14ac:dyDescent="0.25">
@@ -51923,7 +51923,7 @@
       </c>
       <c r="J1546">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1547" spans="1:10" x14ac:dyDescent="0.25">
@@ -51989,7 +51989,7 @@
       </c>
       <c r="J1548">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1549" spans="1:10" x14ac:dyDescent="0.25">
@@ -52220,7 +52220,7 @@
       </c>
       <c r="J1555">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1556" spans="1:10" x14ac:dyDescent="0.25">
@@ -52286,7 +52286,7 @@
       </c>
       <c r="J1557">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1558" spans="1:10" x14ac:dyDescent="0.25">
@@ -52748,7 +52748,7 @@
       </c>
       <c r="J1571">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1572" spans="1:10" x14ac:dyDescent="0.25">
@@ -52880,7 +52880,7 @@
       </c>
       <c r="J1575">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1576" spans="1:10" x14ac:dyDescent="0.25">
@@ -53507,7 +53507,7 @@
       </c>
       <c r="J1594">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1595" spans="1:10" x14ac:dyDescent="0.25">
@@ -53672,7 +53672,7 @@
       </c>
       <c r="J1599">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1600" spans="1:10" x14ac:dyDescent="0.25">
@@ -53803,7 +53803,7 @@
         <v>34265600</v>
       </c>
       <c r="J1603">
-        <f t="shared" ref="J1603:J1666" si="25">IF(SIGN(G1604-G1603)=1,1,0)</f>
+        <f t="shared" ref="J1603:J1666" si="25">IF(SIGN(G1604-D1604)=1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -53969,7 +53969,7 @@
       </c>
       <c r="J1608">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1609" spans="1:10" x14ac:dyDescent="0.25">
@@ -54101,7 +54101,7 @@
       </c>
       <c r="J1612">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1613" spans="1:10" x14ac:dyDescent="0.25">
@@ -54134,7 +54134,7 @@
       </c>
       <c r="J1613">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1614" spans="1:10" x14ac:dyDescent="0.25">
@@ -54200,7 +54200,7 @@
       </c>
       <c r="J1615">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1616" spans="1:10" x14ac:dyDescent="0.25">
@@ -54332,7 +54332,7 @@
       </c>
       <c r="J1619">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1620" spans="1:10" x14ac:dyDescent="0.25">
@@ -54530,7 +54530,7 @@
       </c>
       <c r="J1625">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1626" spans="1:10" x14ac:dyDescent="0.25">
@@ -54563,7 +54563,7 @@
       </c>
       <c r="J1626">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1627" spans="1:10" x14ac:dyDescent="0.25">
@@ -54695,7 +54695,7 @@
       </c>
       <c r="J1630">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1631" spans="1:10" x14ac:dyDescent="0.25">
@@ -54893,7 +54893,7 @@
       </c>
       <c r="J1636">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1637" spans="1:10" x14ac:dyDescent="0.25">
@@ -55256,7 +55256,7 @@
       </c>
       <c r="J1647">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1648" spans="1:10" x14ac:dyDescent="0.25">
@@ -55421,7 +55421,7 @@
       </c>
       <c r="J1652">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1653" spans="1:10" x14ac:dyDescent="0.25">
@@ -55487,7 +55487,7 @@
       </c>
       <c r="J1654">
         <f t="shared" si="25"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1655" spans="1:10" x14ac:dyDescent="0.25">
@@ -55520,7 +55520,7 @@
       </c>
       <c r="J1655">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1656" spans="1:10" x14ac:dyDescent="0.25">
@@ -55718,7 +55718,7 @@
       </c>
       <c r="J1661">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1662" spans="1:10" x14ac:dyDescent="0.25">
@@ -55915,7 +55915,7 @@
         <v>28146200</v>
       </c>
       <c r="J1667">
-        <f t="shared" ref="J1667:J1730" si="26">IF(SIGN(G1668-G1667)=1,1,0)</f>
+        <f t="shared" ref="J1667:J1730" si="26">IF(SIGN(G1668-D1668)=1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -56081,7 +56081,7 @@
       </c>
       <c r="J1672">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1673" spans="1:10" x14ac:dyDescent="0.25">
@@ -56114,7 +56114,7 @@
       </c>
       <c r="J1673">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1674" spans="1:10" x14ac:dyDescent="0.25">
@@ -56873,7 +56873,7 @@
       </c>
       <c r="J1696">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1697" spans="1:10" x14ac:dyDescent="0.25">
@@ -56939,7 +56939,7 @@
       </c>
       <c r="J1698">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1699" spans="1:10" x14ac:dyDescent="0.25">
@@ -57203,7 +57203,7 @@
       </c>
       <c r="J1706">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1707" spans="1:10" x14ac:dyDescent="0.25">
@@ -57302,7 +57302,7 @@
       </c>
       <c r="J1709">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1710" spans="1:10" x14ac:dyDescent="0.25">
@@ -57500,7 +57500,7 @@
       </c>
       <c r="J1715">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1716" spans="1:10" x14ac:dyDescent="0.25">
@@ -57830,7 +57830,7 @@
       </c>
       <c r="J1725">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1726" spans="1:10" x14ac:dyDescent="0.25">
@@ -57995,7 +57995,7 @@
       </c>
       <c r="J1730">
         <f t="shared" si="26"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1731" spans="1:10" x14ac:dyDescent="0.25">
@@ -58027,7 +58027,7 @@
         <v>17847700</v>
       </c>
       <c r="J1731">
-        <f t="shared" ref="J1731:J1794" si="27">IF(SIGN(G1732-G1731)=1,1,0)</f>
+        <f t="shared" ref="J1731:J1794" si="27">IF(SIGN(G1732-D1732)=1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -58127,7 +58127,7 @@
       </c>
       <c r="J1734">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1735" spans="1:10" x14ac:dyDescent="0.25">
@@ -58457,7 +58457,7 @@
       </c>
       <c r="J1744">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1745" spans="1:10" x14ac:dyDescent="0.25">
@@ -58688,7 +58688,7 @@
       </c>
       <c r="J1751">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1752" spans="1:10" x14ac:dyDescent="0.25">
@@ -58754,7 +58754,7 @@
       </c>
       <c r="J1753">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1754" spans="1:10" x14ac:dyDescent="0.25">
@@ -58787,7 +58787,7 @@
       </c>
       <c r="J1754">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1755" spans="1:10" x14ac:dyDescent="0.25">
@@ -58820,7 +58820,7 @@
       </c>
       <c r="J1755">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1756" spans="1:10" x14ac:dyDescent="0.25">
@@ -58985,7 +58985,7 @@
       </c>
       <c r="J1760">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1761" spans="1:10" x14ac:dyDescent="0.25">
@@ -59018,7 +59018,7 @@
       </c>
       <c r="J1761">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1762" spans="1:10" x14ac:dyDescent="0.25">
@@ -59150,7 +59150,7 @@
       </c>
       <c r="J1765">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1766" spans="1:10" x14ac:dyDescent="0.25">
@@ -59249,7 +59249,7 @@
       </c>
       <c r="J1768">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1769" spans="1:10" x14ac:dyDescent="0.25">
@@ -59513,7 +59513,7 @@
       </c>
       <c r="J1776">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1777" spans="1:10" x14ac:dyDescent="0.25">
@@ -59711,7 +59711,7 @@
       </c>
       <c r="J1782">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1783" spans="1:10" x14ac:dyDescent="0.25">
@@ -59744,7 +59744,7 @@
       </c>
       <c r="J1783">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1784" spans="1:10" x14ac:dyDescent="0.25">
@@ -59909,7 +59909,7 @@
       </c>
       <c r="J1788">
         <f t="shared" si="27"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1789" spans="1:10" x14ac:dyDescent="0.25">
@@ -60074,7 +60074,7 @@
       </c>
       <c r="J1793">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1794" spans="1:10" x14ac:dyDescent="0.25">
@@ -60107,7 +60107,7 @@
       </c>
       <c r="J1794">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1795" spans="1:10" x14ac:dyDescent="0.25">
@@ -60139,7 +60139,7 @@
         <v>9723900</v>
       </c>
       <c r="J1795">
-        <f t="shared" ref="J1795:J1858" si="28">IF(SIGN(G1796-G1795)=1,1,0)</f>
+        <f t="shared" ref="J1795:J1858" si="28">IF(SIGN(G1796-D1796)=1,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -60371,7 +60371,7 @@
       </c>
       <c r="J1802">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1803" spans="1:10" x14ac:dyDescent="0.25">
@@ -60470,7 +60470,7 @@
       </c>
       <c r="J1805">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1806" spans="1:10" x14ac:dyDescent="0.25">
@@ -61064,7 +61064,7 @@
       </c>
       <c r="J1823">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1824" spans="1:10" x14ac:dyDescent="0.25">
@@ -61295,7 +61295,7 @@
       </c>
       <c r="J1830">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1831" spans="1:10" x14ac:dyDescent="0.25">
@@ -61394,7 +61394,7 @@
       </c>
       <c r="J1833">
         <f t="shared" si="28"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1834" spans="1:10" x14ac:dyDescent="0.25">
@@ -62251,7 +62251,7 @@
         <v>9178300</v>
       </c>
       <c r="J1859">
-        <f t="shared" ref="J1859:J1922" si="29">IF(SIGN(G1860-G1859)=1,1,0)</f>
+        <f t="shared" ref="J1859:J1922" si="29">IF(SIGN(G1860-D1860)=1,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -62318,7 +62318,7 @@
       </c>
       <c r="J1861">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1862" spans="1:10" x14ac:dyDescent="0.25">
@@ -62813,7 +62813,7 @@
       </c>
       <c r="J1876">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1877" spans="1:10" x14ac:dyDescent="0.25">
@@ -63143,7 +63143,7 @@
       </c>
       <c r="J1886">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1887" spans="1:10" x14ac:dyDescent="0.25">
@@ -63473,7 +63473,7 @@
       </c>
       <c r="J1896">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1897" spans="1:10" x14ac:dyDescent="0.25">
@@ -63539,7 +63539,7 @@
       </c>
       <c r="J1898">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1899" spans="1:10" x14ac:dyDescent="0.25">
@@ -63605,7 +63605,7 @@
       </c>
       <c r="J1900">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1901" spans="1:10" x14ac:dyDescent="0.25">
@@ -63869,7 +63869,7 @@
       </c>
       <c r="J1908">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1909" spans="1:10" x14ac:dyDescent="0.25">
@@ -63968,7 +63968,7 @@
       </c>
       <c r="J1911">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1912" spans="1:10" x14ac:dyDescent="0.25">
@@ -64100,7 +64100,7 @@
       </c>
       <c r="J1915">
         <f t="shared" si="29"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1916" spans="1:10" x14ac:dyDescent="0.25">
@@ -64232,7 +64232,7 @@
       </c>
       <c r="J1919">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1920" spans="1:10" x14ac:dyDescent="0.25">
@@ -64363,7 +64363,7 @@
         <v>13475000</v>
       </c>
       <c r="J1923">
-        <f t="shared" ref="J1923:J1986" si="30">IF(SIGN(G1924-G1923)=1,1,0)</f>
+        <f t="shared" ref="J1923:J1986" si="30">IF(SIGN(G1924-D1924)=1,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -64529,7 +64529,7 @@
       </c>
       <c r="J1928">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1929" spans="1:10" x14ac:dyDescent="0.25">
@@ -64727,7 +64727,7 @@
       </c>
       <c r="J1934">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1935" spans="1:10" x14ac:dyDescent="0.25">
@@ -64826,7 +64826,7 @@
       </c>
       <c r="J1937">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1938" spans="1:10" x14ac:dyDescent="0.25">
@@ -64958,7 +64958,7 @@
       </c>
       <c r="J1941">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1942" spans="1:10" x14ac:dyDescent="0.25">
@@ -65651,7 +65651,7 @@
       </c>
       <c r="J1962">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1963" spans="1:10" x14ac:dyDescent="0.25">
@@ -65882,7 +65882,7 @@
       </c>
       <c r="J1969">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1970" spans="1:10" x14ac:dyDescent="0.25">
@@ -65915,7 +65915,7 @@
       </c>
       <c r="J1970">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1971" spans="1:10" x14ac:dyDescent="0.25">
@@ -66377,7 +66377,7 @@
       </c>
       <c r="J1984">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1985" spans="1:10" x14ac:dyDescent="0.25">
@@ -66443,7 +66443,7 @@
       </c>
       <c r="J1986">
         <f t="shared" si="30"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1987" spans="1:10" x14ac:dyDescent="0.25">
@@ -66475,8 +66475,8 @@
         <v>23534300</v>
       </c>
       <c r="J1987">
-        <f t="shared" ref="J1987:J2050" si="31">IF(SIGN(G1988-G1987)=1,1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="J1987:J2050" si="31">IF(SIGN(G1988-D1988)=1,1,0)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="1988" spans="1:10" x14ac:dyDescent="0.25">
@@ -66509,7 +66509,7 @@
       </c>
       <c r="J1988">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1989" spans="1:10" x14ac:dyDescent="0.25">
@@ -66542,7 +66542,7 @@
       </c>
       <c r="J1989">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1990" spans="1:10" x14ac:dyDescent="0.25">
@@ -66641,7 +66641,7 @@
       </c>
       <c r="J1992">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1993" spans="1:10" x14ac:dyDescent="0.25">
@@ -66905,7 +66905,7 @@
       </c>
       <c r="J2000">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2001" spans="1:10" x14ac:dyDescent="0.25">
@@ -66938,7 +66938,7 @@
       </c>
       <c r="J2001">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2002" spans="1:10" x14ac:dyDescent="0.25">
@@ -67400,7 +67400,7 @@
       </c>
       <c r="J2015">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2016" spans="1:10" x14ac:dyDescent="0.25">
@@ -67499,7 +67499,7 @@
       </c>
       <c r="J2018">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2019" spans="1:10" x14ac:dyDescent="0.25">
@@ -67532,7 +67532,7 @@
       </c>
       <c r="J2019">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2020" spans="1:10" x14ac:dyDescent="0.25">
@@ -67895,7 +67895,7 @@
       </c>
       <c r="J2030">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2031" spans="1:10" x14ac:dyDescent="0.25">
@@ -67961,7 +67961,7 @@
       </c>
       <c r="J2032">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2033" spans="1:10" x14ac:dyDescent="0.25">
@@ -67994,7 +67994,7 @@
       </c>
       <c r="J2033">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2034" spans="1:10" x14ac:dyDescent="0.25">
@@ -68489,7 +68489,7 @@
       </c>
       <c r="J2048">
         <f t="shared" si="31"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2049" spans="1:10" x14ac:dyDescent="0.25">
@@ -68587,7 +68587,7 @@
         <v>24674900</v>
       </c>
       <c r="J2051">
-        <f t="shared" ref="J2051:J2077" si="32">IF(SIGN(G2052-G2051)=1,1,0)</f>
+        <f t="shared" ref="J2051:J2077" si="32">IF(SIGN(G2052-D2052)=1,1,0)</f>
         <v>1</v>
       </c>
     </row>
@@ -68621,7 +68621,7 @@
       </c>
       <c r="J2052">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2053" spans="1:10" x14ac:dyDescent="0.25">
@@ -68852,7 +68852,7 @@
       </c>
       <c r="J2059">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2060" spans="1:10" x14ac:dyDescent="0.25">
@@ -69017,7 +69017,7 @@
       </c>
       <c r="J2064">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2065" spans="1:10" x14ac:dyDescent="0.25">
@@ -69314,7 +69314,7 @@
       </c>
       <c r="J2073">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2074" spans="1:10" x14ac:dyDescent="0.25">
